--- a/two.xlsx
+++ b/two.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\html2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB291F-C782-4E69-A883-904579B0E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DABEFD-B771-43ED-A2F6-3F9A857563EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54359931-F59D-40F9-8BBE-5B08C764D5B3}"/>
   </bookViews>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68123B1-7CB9-4D12-9E2A-5E7E85EEFABB}">
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,7 +1595,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
